--- a/VersionRecords/Version BrandOpt 20170221/版本Bug和特性计划及评审表vBrandOpt_EQ组.xlsx
+++ b/VersionRecords/Version BrandOpt 20170221/版本Bug和特性计划及评审表vBrandOpt_EQ组.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="804" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="804" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本X.X.X 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
   <si>
     <t>No</t>
   </si>
@@ -308,11 +308,6 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">sysconfig.memcache.brand.longexpire=0
-</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">
 sysconfig.ELASTIC_SEARCHROOM_BRAND_TYPE=brand
 </t>
@@ -333,6 +328,33 @@
   <si>
     <t>公测环境</t>
     <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>mogoroom-
+partner</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemconfig.properties</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemconfig.properties</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">sysconfig.memcache.brand.longexpire=0
+</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysconfig.memcache.brand.shortexpire=300
+sysconfig.memcache.brand.longexpire=0</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌缓存使用</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -998,6 +1020,18 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1024,18 +1058,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -5518,19 +5540,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
     </row>
     <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -5568,8 +5590,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
+      <c r="A3" s="83"/>
+      <c r="B3" s="83"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5581,8 +5603,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5594,8 +5616,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="79"/>
-      <c r="B5" s="79"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="83"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5607,8 +5629,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="81"/>
-      <c r="B6" s="81"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="85"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5620,8 +5642,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="81"/>
-      <c r="B7" s="81"/>
+      <c r="A7" s="85"/>
+      <c r="B7" s="85"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5633,8 +5655,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="81"/>
-      <c r="B8" s="81"/>
+      <c r="A8" s="85"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -5646,8 +5668,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="81"/>
-      <c r="B9" s="81"/>
+      <c r="A9" s="85"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -5659,8 +5681,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="80"/>
-      <c r="B10" s="80"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="84"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -5699,10 +5721,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5721,36 +5743,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -5793,65 +5815,109 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="11"/>
-    </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="11"/>
+    <row r="4" spans="1:13" s="79" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A4" s="77">
+        <v>1</v>
+      </c>
+      <c r="B4" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="77"/>
+      <c r="D4" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" s="78"/>
+    </row>
+    <row r="5" spans="1:13" ht="33" x14ac:dyDescent="0.15">
+      <c r="A5" s="77">
+        <v>2</v>
+      </c>
+      <c r="B5" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="11"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="17"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
@@ -5861,27 +5927,27 @@
       <c r="E8" s="15"/>
       <c r="F8" s="14"/>
       <c r="G8" s="15"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="11"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="17"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
+      <c r="M9" s="11"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
@@ -5988,22 +6054,37 @@
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
     </row>
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
+  <dataValidations disablePrompts="1" count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:I17">
       <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F17 JB4 WVN4 WLR4 WBV4 VRZ4 VID4 UYH4 UOL4 UEP4 TUT4 TKX4 TBB4 SRF4 SHJ4 RXN4 RNR4 RDV4 QTZ4 QKD4 QAH4 PQL4 PGP4 OWT4 OMX4 ODB4 NTF4 NJJ4 MZN4 MPR4 MFV4 LVZ4 LMD4 LCH4 KSL4 KIP4 JYT4 JOX4 JFB4 IVF4 ILJ4 IBN4 HRR4 HHV4 GXZ4 GOD4 GEH4 FUL4 FKP4 FAT4 EQX4 EHB4 DXF4 DNJ4 DDN4 CTR4 CJV4 BZZ4 BQD4 BGH4 AWL4 AMP4 ACT4 SX4">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9 I6:I7 TA4 JE4 WVQ4 WLU4 WBY4 VSC4 VIG4 UYK4 UOO4 UES4 TUW4 TLA4 TBE4 SRI4 SHM4 RXQ4 RNU4 RDY4 QUC4 QKG4 QAK4 PQO4 PGS4 OWW4 ONA4 ODE4 NTI4 NJM4 MZQ4 MPU4 MFY4 LWC4 LMG4 LCK4 KSO4 KIS4 JYW4 JPA4 JFE4 IVI4 ILM4 IBQ4 HRU4 HHY4 GYC4 GOG4 GEK4 FUO4 FKS4 FAW4 ERA4 EHE4 DXI4 DNM4 DDQ4 CTU4 CJY4 CAC4 BQG4 BGK4 AWO4 AMS4 ACW4">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6016,7 +6097,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6035,36 +6116,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6107,95 +6188,117 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="88" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="86">
+    <row r="4" spans="1:13" s="79" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="77">
         <v>1</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="87" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="86" t="s">
+      <c r="E4" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="86" t="s">
+      <c r="F4" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="89" t="s">
+      <c r="G4" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="86" t="s">
+      <c r="I4" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" s="78" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="79" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A5" s="77">
+        <v>2</v>
+      </c>
+      <c r="B5" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="77"/>
+      <c r="D5" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="J4" s="87" t="s">
+      <c r="J5" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K5" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="L4" s="86" t="s">
+      <c r="L5" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="M4" s="87" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="88" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A5" s="86">
-        <v>2</v>
-      </c>
-      <c r="B5" s="86" t="s">
+      <c r="M5" s="78"/>
+    </row>
+    <row r="6" spans="1:13" ht="33" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="87" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="86" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="86" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" s="89" t="s">
-        <v>80</v>
-      </c>
-      <c r="H5" s="87" t="s">
-        <v>79</v>
-      </c>
-      <c r="I5" s="86" t="s">
-        <v>84</v>
-      </c>
-      <c r="J5" s="87" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="K5" s="87" t="s">
+      <c r="K6" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="L5" s="86" t="s">
+      <c r="L6" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="M5" s="87"/>
-    </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
@@ -6357,10 +6460,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I6 JE4:JE5 WVQ4:WVQ5 WLU4:WLU5 WBY4:WBY5 VSC4:VSC5 VIG4:VIG5 UYK4:UYK5 UOO4:UOO5 UES4:UES5 TUW4:TUW5 TLA4:TLA5 TBE4:TBE5 SRI4:SRI5 SHM4:SHM5 RXQ4:RXQ5 RNU4:RNU5 RDY4:RDY5 QUC4:QUC5 QKG4:QKG5 QAK4:QAK5 PQO4:PQO5 PGS4:PGS5 OWW4:OWW5 ONA4:ONA5 ODE4:ODE5 NTI4:NTI5 NJM4:NJM5 MZQ4:MZQ5 MPU4:MPU5 MFY4:MFY5 LWC4:LWC5 LMG4:LMG5 LCK4:LCK5 KSO4:KSO5 KIS4:KIS5 JYW4:JYW5 JPA4:JPA5 JFE4:JFE5 IVI4:IVI5 ILM4:ILM5 IBQ4:IBQ5 HRU4:HRU5 HHY4:HHY5 GYC4:GYC5 GOG4:GOG5 GEK4:GEK5 FUO4:FUO5 FKS4:FKS5 FAW4:FAW5 ERA4:ERA5 EHE4:EHE5 DXI4:DXI5 DNM4:DNM5 DDQ4:DDQ5 CTU4:CTU5 CJY4:CJY5 CAC4:CAC5 BQG4:BQG5 BGK4:BGK5 AWO4:AWO5 AMS4:AMS5 ACW4:ACW5 TA4:TA5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 TA4:TA5 JE4:JE5 WVQ4:WVQ5 WLU4:WLU5 WBY4:WBY5 VSC4:VSC5 VIG4:VIG5 UYK4:UYK5 UOO4:UOO5 UES4:UES5 TUW4:TUW5 TLA4:TLA5 TBE4:TBE5 SRI4:SRI5 SHM4:SHM5 RXQ4:RXQ5 RNU4:RNU5 RDY4:RDY5 QUC4:QUC5 QKG4:QKG5 QAK4:QAK5 PQO4:PQO5 PGS4:PGS5 OWW4:OWW5 ONA4:ONA5 ODE4:ODE5 NTI4:NTI5 NJM4:NJM5 MZQ4:MZQ5 MPU4:MPU5 MFY4:MFY5 LWC4:LWC5 LMG4:LMG5 LCK4:LCK5 KSO4:KSO5 KIS4:KIS5 JYW4:JYW5 JPA4:JPA5 JFE4:JFE5 IVI4:IVI5 ILM4:ILM5 IBQ4:IBQ5 HRU4:HRU5 HHY4:HHY5 GYC4:GYC5 GOG4:GOG5 GEK4:GEK5 FUO4:FUO5 FKS4:FKS5 FAW4:FAW5 ERA4:ERA5 EHE4:EHE5 DXI4:DXI5 DNM4:DNM5 DDQ4:DDQ5 CTU4:CTU5 CJY4:CJY5 CAC4:CAC5 BQG4:BQG5 BGK4:BGK5 AWO4:AWO5 AMS4:AMS5 ACW4:ACW5">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16 WVN4:WVN5 WLR4:WLR5 WBV4:WBV5 VRZ4:VRZ5 VID4:VID5 UYH4:UYH5 UOL4:UOL5 UEP4:UEP5 TUT4:TUT5 TKX4:TKX5 TBB4:TBB5 SRF4:SRF5 SHJ4:SHJ5 RXN4:RXN5 RNR4:RNR5 RDV4:RDV5 QTZ4:QTZ5 QKD4:QKD5 QAH4:QAH5 PQL4:PQL5 PGP4:PGP5 OWT4:OWT5 OMX4:OMX5 ODB4:ODB5 NTF4:NTF5 NJJ4:NJJ5 MZN4:MZN5 MPR4:MPR5 MFV4:MFV5 LVZ4:LVZ5 LMD4:LMD5 LCH4:LCH5 KSL4:KSL5 KIP4:KIP5 JYT4:JYT5 JOX4:JOX5 JFB4:JFB5 IVF4:IVF5 ILJ4:ILJ5 IBN4:IBN5 HRR4:HRR5 HHV4:HHV5 GXZ4:GXZ5 GOD4:GOD5 GEH4:GEH5 FUL4:FUL5 FKP4:FKP5 FAT4:FAT5 EQX4:EQX5 EHB4:EHB5 DXF4:DXF5 DNJ4:DNJ5 DDN4:DDN5 CTR4:CTR5 CJV4:CJV5 BZZ4:BZZ5 BQD4:BQD5 BGH4:BGH5 AWL4:AWL5 AMP4:AMP5 ACT4:ACT5 SX4:SX5 JB4:JB5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JB4:JB5 WVN4:WVN5 WLR4:WLR5 WBV4:WBV5 VRZ4:VRZ5 VID4:VID5 UYH4:UYH5 UOL4:UOL5 UEP4:UEP5 TUT4:TUT5 TKX4:TKX5 TBB4:TBB5 SRF4:SRF5 SHJ4:SHJ5 RXN4:RXN5 RNR4:RNR5 RDV4:RDV5 QTZ4:QTZ5 QKD4:QKD5 QAH4:QAH5 PQL4:PQL5 PGP4:PGP5 OWT4:OWT5 OMX4:OMX5 ODB4:ODB5 NTF4:NTF5 NJJ4:NJJ5 MZN4:MZN5 MPR4:MPR5 MFV4:MFV5 LVZ4:LVZ5 LMD4:LMD5 LCH4:LCH5 KSL4:KSL5 KIP4:KIP5 JYT4:JYT5 JOX4:JOX5 JFB4:JFB5 IVF4:IVF5 ILJ4:ILJ5 IBN4:IBN5 HRR4:HRR5 HHV4:HHV5 GXZ4:GXZ5 GOD4:GOD5 GEH4:GEH5 FUL4:FUL5 FKP4:FKP5 FAT4:FAT5 EQX4:EQX5 EHB4:EHB5 DXF4:DXF5 DNJ4:DNJ5 DDN4:DDN5 CTR4:CTR5 CJV4:CJV5 BZZ4:BZZ5 BQD4:BQD5 BGH4:BGH5 AWL4:AWL5 AMP4:AMP5 ACT4:ACT5 SX4:SX5 F4:F16">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
@@ -6376,7 +6479,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6395,36 +6498,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6467,95 +6570,117 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="88" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="86">
+    <row r="4" spans="1:13" s="79" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="77">
         <v>1</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="87" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="86" t="s">
+      <c r="E4" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="86" t="s">
+      <c r="F4" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="89" t="s">
+      <c r="G4" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="86" t="s">
+      <c r="I4" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="87" t="s">
+      <c r="J4" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="L4" s="86" t="s">
+      <c r="L4" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="M4" s="87" t="s">
+      <c r="M4" s="78" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="88" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A5" s="86">
+    <row r="5" spans="1:13" s="79" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A5" s="77">
         <v>2</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="87" t="s">
+      <c r="C5" s="77"/>
+      <c r="D5" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="86" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="86" t="s">
+      <c r="E5" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="89" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" s="87" t="s">
+      <c r="G5" s="80" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="I5" s="86" t="s">
+      <c r="I5" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="J5" s="87" t="s">
+      <c r="J5" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="K5" s="87" t="s">
+      <c r="K5" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="L5" s="86" t="s">
+      <c r="L5" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="M5" s="87"/>
-    </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
-      <c r="B6" s="12"/>
+      <c r="M5" s="78"/>
+    </row>
+    <row r="6" spans="1:13" ht="33" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="77" t="s">
+        <v>68</v>
+      </c>
       <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="12"/>
+      <c r="D6" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" s="77" t="s">
+        <v>71</v>
+      </c>
       <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
@@ -6717,7 +6842,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 JE4:JE5 WVQ4:WVQ5 WLU4:WLU5 WBY4:WBY5 VSC4:VSC5 VIG4:VIG5 UYK4:UYK5 UOO4:UOO5 UES4:UES5 TUW4:TUW5 TLA4:TLA5 TBE4:TBE5 SRI4:SRI5 SHM4:SHM5 RXQ4:RXQ5 RNU4:RNU5 RDY4:RDY5 QUC4:QUC5 QKG4:QKG5 QAK4:QAK5 PQO4:PQO5 PGS4:PGS5 OWW4:OWW5 ONA4:ONA5 ODE4:ODE5 NTI4:NTI5 NJM4:NJM5 MZQ4:MZQ5 MPU4:MPU5 MFY4:MFY5 LWC4:LWC5 LMG4:LMG5 LCK4:LCK5 KSO4:KSO5 KIS4:KIS5 JYW4:JYW5 JPA4:JPA5 JFE4:JFE5 IVI4:IVI5 ILM4:ILM5 IBQ4:IBQ5 HRU4:HRU5 HHY4:HHY5 GYC4:GYC5 GOG4:GOG5 GEK4:GEK5 FUO4:FUO5 FKS4:FKS5 FAW4:FAW5 ERA4:ERA5 EHE4:EHE5 DXI4:DXI5 DNM4:DNM5 DDQ4:DDQ5 CTU4:CTU5 CJY4:CJY5 CAC4:CAC5 BQG4:BQG5 BGK4:BGK5 AWO4:AWO5 AMS4:AMS5 ACW4:ACW5 TA4:TA5 I6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 JE4:JE5 WVQ4:WVQ5 WLU4:WLU5 WBY4:WBY5 VSC4:VSC5 VIG4:VIG5 UYK4:UYK5 UOO4:UOO5 UES4:UES5 TUW4:TUW5 TLA4:TLA5 TBE4:TBE5 SRI4:SRI5 SHM4:SHM5 RXQ4:RXQ5 RNU4:RNU5 RDY4:RDY5 QUC4:QUC5 QKG4:QKG5 QAK4:QAK5 PQO4:PQO5 PGS4:PGS5 OWW4:OWW5 ONA4:ONA5 ODE4:ODE5 NTI4:NTI5 NJM4:NJM5 MZQ4:MZQ5 MPU4:MPU5 MFY4:MFY5 LWC4:LWC5 LMG4:LMG5 LCK4:LCK5 KSO4:KSO5 KIS4:KIS5 JYW4:JYW5 JPA4:JPA5 JFE4:JFE5 IVI4:IVI5 ILM4:ILM5 IBQ4:IBQ5 HRU4:HRU5 HHY4:HHY5 GYC4:GYC5 GOG4:GOG5 GEK4:GEK5 FUO4:FUO5 FKS4:FKS5 FAW4:FAW5 ERA4:ERA5 EHE4:EHE5 DXI4:DXI5 DNM4:DNM5 DDQ4:DDQ5 CTU4:CTU5 CJY4:CJY5 CAC4:CAC5 BQG4:BQG5 BGK4:BGK5 AWO4:AWO5 AMS4:AMS5 ACW4:ACW5 TA4:TA5">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVN4:WVN5 WLR4:WLR5 WBV4:WBV5 VRZ4:VRZ5 VID4:VID5 UYH4:UYH5 UOL4:UOL5 UEP4:UEP5 TUT4:TUT5 TKX4:TKX5 TBB4:TBB5 SRF4:SRF5 SHJ4:SHJ5 RXN4:RXN5 RNR4:RNR5 RDV4:RDV5 QTZ4:QTZ5 QKD4:QKD5 QAH4:QAH5 PQL4:PQL5 PGP4:PGP5 OWT4:OWT5 OMX4:OMX5 ODB4:ODB5 NTF4:NTF5 NJJ4:NJJ5 MZN4:MZN5 MPR4:MPR5 MFV4:MFV5 LVZ4:LVZ5 LMD4:LMD5 LCH4:LCH5 KSL4:KSL5 KIP4:KIP5 JYT4:JYT5 JOX4:JOX5 JFB4:JFB5 IVF4:IVF5 ILJ4:ILJ5 IBN4:IBN5 HRR4:HRR5 HHV4:HHV5 GXZ4:GXZ5 GOD4:GOD5 GEH4:GEH5 FUL4:FUL5 FKP4:FKP5 FAT4:FAT5 EQX4:EQX5 EHB4:EHB5 DXF4:DXF5 DNJ4:DNJ5 DDN4:DDN5 CTR4:CTR5 CJV4:CJV5 BZZ4:BZZ5 BQD4:BQD5 BGH4:BGH5 AWL4:AWL5 AMP4:AMP5 ACT4:ACT5 SX4:SX5 JB4:JB5 F4:F16">
@@ -6735,8 +6860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6757,36 +6882,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6829,95 +6954,117 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="88" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="86">
+    <row r="4" spans="1:13" s="79" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="77">
         <v>1</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="87" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="86" t="s">
+      <c r="E4" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="86" t="s">
+      <c r="F4" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="89" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" s="87" t="s">
+      <c r="G4" s="80" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="86" t="s">
+      <c r="I4" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" s="78" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="79" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A5" s="77">
+        <v>2</v>
+      </c>
+      <c r="B5" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="77"/>
+      <c r="D5" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="J4" s="87" t="s">
+      <c r="J5" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K5" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="L4" s="86" t="s">
+      <c r="L5" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="M4" s="87" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="88" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A5" s="86">
-        <v>2</v>
-      </c>
-      <c r="B5" s="86" t="s">
+      <c r="M5" s="78"/>
+    </row>
+    <row r="6" spans="1:13" ht="33" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="87" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="86" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="86" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" s="89" t="s">
-        <v>80</v>
-      </c>
-      <c r="H5" s="87" t="s">
-        <v>79</v>
-      </c>
-      <c r="I5" s="86" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="J5" s="87" t="s">
+      <c r="E6" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="K5" s="87" t="s">
+      <c r="K6" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="L5" s="86" t="s">
+      <c r="L6" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="M5" s="87"/>
-    </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
@@ -7076,13 +7223,13 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16 WVN4:WVN5 WLR4:WLR5 WBV4:WBV5 VRZ4:VRZ5 VID4:VID5 UYH4:UYH5 UOL4:UOL5 UEP4:UEP5 TUT4:TUT5 TKX4:TKX5 TBB4:TBB5 SRF4:SRF5 SHJ4:SHJ5 RXN4:RXN5 RNR4:RNR5 RDV4:RDV5 QTZ4:QTZ5 QKD4:QKD5 QAH4:QAH5 PQL4:PQL5 PGP4:PGP5 OWT4:OWT5 OMX4:OMX5 ODB4:ODB5 NTF4:NTF5 NJJ4:NJJ5 MZN4:MZN5 MPR4:MPR5 MFV4:MFV5 LVZ4:LVZ5 LMD4:LMD5 LCH4:LCH5 KSL4:KSL5 KIP4:KIP5 JYT4:JYT5 JOX4:JOX5 JFB4:JFB5 IVF4:IVF5 ILJ4:ILJ5 IBN4:IBN5 HRR4:HRR5 HHV4:HHV5 GXZ4:GXZ5 GOD4:GOD5 GEH4:GEH5 FUL4:FUL5 FKP4:FKP5 FAT4:FAT5 EQX4:EQX5 EHB4:EHB5 DXF4:DXF5 DNJ4:DNJ5 DDN4:DDN5 CTR4:CTR5 CJV4:CJV5 BZZ4:BZZ5 BQD4:BQD5 BGH4:BGH5 AWL4:AWL5 AMP4:AMP5 ACT4:ACT5 SX4:SX5 JB4:JB5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JB4:JB5 WVN4:WVN5 WLR4:WLR5 WBV4:WBV5 VRZ4:VRZ5 VID4:VID5 UYH4:UYH5 UOL4:UOL5 UEP4:UEP5 TUT4:TUT5 TKX4:TKX5 TBB4:TBB5 SRF4:SRF5 SHJ4:SHJ5 RXN4:RXN5 RNR4:RNR5 RDV4:RDV5 QTZ4:QTZ5 QKD4:QKD5 QAH4:QAH5 PQL4:PQL5 PGP4:PGP5 OWT4:OWT5 OMX4:OMX5 ODB4:ODB5 NTF4:NTF5 NJJ4:NJJ5 MZN4:MZN5 MPR4:MPR5 MFV4:MFV5 LVZ4:LVZ5 LMD4:LMD5 LCH4:LCH5 KSL4:KSL5 KIP4:KIP5 JYT4:JYT5 JOX4:JOX5 JFB4:JFB5 IVF4:IVF5 ILJ4:ILJ5 IBN4:IBN5 HRR4:HRR5 HHV4:HHV5 GXZ4:GXZ5 GOD4:GOD5 GEH4:GEH5 FUL4:FUL5 FKP4:FKP5 FAT4:FAT5 EQX4:EQX5 EHB4:EHB5 DXF4:DXF5 DNJ4:DNJ5 DDN4:DDN5 CTR4:CTR5 CJV4:CJV5 BZZ4:BZZ5 BQD4:BQD5 BGH4:BGH5 AWL4:AWL5 AMP4:AMP5 ACT4:ACT5 SX4:SX5 F4:F16">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I6 JE4:JE5 WVQ4:WVQ5 WLU4:WLU5 WBY4:WBY5 VSC4:VSC5 VIG4:VIG5 UYK4:UYK5 UOO4:UOO5 UES4:UES5 TUW4:TUW5 TLA4:TLA5 TBE4:TBE5 SRI4:SRI5 SHM4:SHM5 RXQ4:RXQ5 RNU4:RNU5 RDY4:RDY5 QUC4:QUC5 QKG4:QKG5 QAK4:QAK5 PQO4:PQO5 PGS4:PGS5 OWW4:OWW5 ONA4:ONA5 ODE4:ODE5 NTI4:NTI5 NJM4:NJM5 MZQ4:MZQ5 MPU4:MPU5 MFY4:MFY5 LWC4:LWC5 LMG4:LMG5 LCK4:LCK5 KSO4:KSO5 KIS4:KIS5 JYW4:JYW5 JPA4:JPA5 JFE4:JFE5 IVI4:IVI5 ILM4:ILM5 IBQ4:IBQ5 HRU4:HRU5 HHY4:HHY5 GYC4:GYC5 GOG4:GOG5 GEK4:GEK5 FUO4:FUO5 FKS4:FKS5 FAW4:FAW5 ERA4:ERA5 EHE4:EHE5 DXI4:DXI5 DNM4:DNM5 DDQ4:DDQ5 CTU4:CTU5 CJY4:CJY5 CAC4:CAC5 BQG4:BQG5 BGK4:BGK5 AWO4:AWO5 AMS4:AMS5 ACW4:ACW5 TA4:TA5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 TA4:TA5 JE4:JE5 WVQ4:WVQ5 WLU4:WLU5 WBY4:WBY5 VSC4:VSC5 VIG4:VIG5 UYK4:UYK5 UOO4:UOO5 UES4:UES5 TUW4:TUW5 TLA4:TLA5 TBE4:TBE5 SRI4:SRI5 SHM4:SHM5 RXQ4:RXQ5 RNU4:RNU5 RDY4:RDY5 QUC4:QUC5 QKG4:QKG5 QAK4:QAK5 PQO4:PQO5 PGS4:PGS5 OWW4:OWW5 ONA4:ONA5 ODE4:ODE5 NTI4:NTI5 NJM4:NJM5 MZQ4:MZQ5 MPU4:MPU5 MFY4:MFY5 LWC4:LWC5 LMG4:LMG5 LCK4:LCK5 KSO4:KSO5 KIS4:KIS5 JYW4:JYW5 JPA4:JPA5 JFE4:JFE5 IVI4:IVI5 ILM4:ILM5 IBQ4:IBQ5 HRU4:HRU5 HHY4:HHY5 GYC4:GYC5 GOG4:GOG5 GEK4:GEK5 FUO4:FUO5 FKS4:FKS5 FAW4:FAW5 ERA4:ERA5 EHE4:EHE5 DXI4:DXI5 DNM4:DNM5 DDQ4:DDQ5 CTU4:CTU5 CJY4:CJY5 CAC4:CAC5 BQG4:BQG5 BGK4:BGK5 AWO4:AWO5 AMS4:AMS5 ACW4:ACW5">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
